--- a/Daten/beispiel_1/Eingangsdaten/Nachfrage.xlsx
+++ b/Daten/beispiel_1/Eingangsdaten/Nachfrage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -365,7 +365,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
